--- a/project/source/OrderTemplates/OrderTemplatePolsat.xlsx
+++ b/project/source/OrderTemplates/OrderTemplatePolsat.xlsx
@@ -8,90 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macie\PycharmProjects\MnrwOrdersFlow\project\source\OrderTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E4BC2E-2E6A-4D6A-9A77-6DF2ECA7994C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C2D879-E6CD-48DD-94B3-52D360C45E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15060" xr2:uid="{9AB22363-43D3-4E37-BCB1-56398185EA32}"/>
   </bookViews>
   <sheets>
     <sheet name="order" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="input_extId" localSheetId="0">order!$B$7</definedName>
-    <definedName name="input_xLength" localSheetId="0">order!$B$5</definedName>
-    <definedName name="list_suppliers">[1]dict!$D:$D</definedName>
-    <definedName name="listPart_suppliers">OFFSET(list_suppliers,1,0,COUNTA(list_suppliers)-1)</definedName>
-    <definedName name="mode_allowAnyDate" comment="False">"variablePreservedInComment"</definedName>
-    <definedName name="mode_allowUsePathPreserve" comment="False">"variablePreservedInComment"</definedName>
-    <definedName name="mode_autoLogin" comment="False">"variablePreservedInComment"</definedName>
-    <definedName name="mode_displayMessagesInJson">"variablePreservedInComment"</definedName>
-    <definedName name="mode_doNotCheckDatabase" comment="True">"variablePreservedInComment"</definedName>
-    <definedName name="mode_doNotClearTempTables" comment="False">"variablePreservedInComment"</definedName>
-    <definedName name="mode_errorHandling" comment="2">"variablePreservedInComment"</definedName>
-    <definedName name="mode_forceSave" comment="3">"variablePreservedInComment"</definedName>
-    <definedName name="mode_forceUseWorkspacesFolde" comment="False">"variablePreservedInComment"</definedName>
-    <definedName name="mode_forceWorkspaceUpdatability">"variablePreservedInComment"</definedName>
-    <definedName name="mode_multimediaLocal" comment="False">"variablePreservedInComment"</definedName>
-    <definedName name="mode_mute" comment="False">"variablePreservedInComment"</definedName>
-    <definedName name="mode_notNasi" comment="False">"variablePreservedInComment"</definedName>
-    <definedName name="mode_selectInto" comment="False">"variablePreservedInComment"</definedName>
-    <definedName name="mode_selfRepairTcds" comment="False">"variablePreservedInComment"</definedName>
-    <definedName name="mode_setUpIdizer">"variablePreservedInComment"</definedName>
-    <definedName name="mode_sqlServerLocalConnection" comment="False">"variablePreservedInComment"</definedName>
-    <definedName name="mode_sqlServerTests" comment="True">"variablePreservedInComment"</definedName>
-    <definedName name="mode_subproject">"variablePreservedInComment"</definedName>
-    <definedName name="mode_supressAlerts" comment="False">"variablePreservedInComment"</definedName>
-    <definedName name="mode_supressData" comment="False">"variablePreservedInComment"</definedName>
-    <definedName name="mode_supressInputs" comment="False">"variablePreservedInComment"</definedName>
-    <definedName name="mode_testTableContentDefs" comment="False">"variablePreservedInComment"</definedName>
-    <definedName name="mode_useFakeLocalRepository" comment="False">"variablePreservedInComment"</definedName>
-    <definedName name="mode_useLocalPredData">"variablePreservedInComment"</definedName>
-    <definedName name="mode_useTempRozkminkiWorkspace">"variablePreservedInComment"</definedName>
-    <definedName name="mode_useTimeLog" comment="False">"variablePreservedInComment"</definedName>
-    <definedName name="mode_useXlsxForSlownikiSaving" comment="False">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_adex" comment="_dropbox_\Categorization ML\source\test::maciek a.csv">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_adex_force" comment="_dropbox_\Categorization ML\source\test::maciek a.csv">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_Adexpert" comment="_dropbox_\Categorization HV\source\demo 2020-06-03 telokom::McG_Telekomy042020.xlsx">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_Advantedge" comment="_dropbox_\Categorization HV\source\demo::ADV_Polkomtel_2019_przyklad_export.xlsx">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_adventedge" comment="_dropbox_\Categorization HV\source\demo 2020-06-03 telokom::Spots Compet_Template_20200603_123902.xlsx">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_adventedge_force" comment="_dropbox_\Categorization ML\source\test::Spots Categorization2020_20200117_142251.xlsx">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_agb" comment="_dropbox_\Minerwa\Import zlecen\source\Baza kampanii::agb - small.xlsx">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_bookingPolsat" comment="C:\Users\macie\PycharmProjects\MnrwOrdersFlow\project\source::2 booking polsat no pato2023-04-22 1052.xlsx">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_bookingTvn" comment="_dropbox_\Minerwa - udostępniać podfoldery\Import Zleceń XP\source\Import zleceń cannon 2022-10-06\5. BookingTvn::2022-10-06 114034 TVN.txt">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_bookingTvp" comment="_dropbox_\Minerwa - udostępniać podfoldery\Import Zleceń XP\source\Import zleceń cannon 2022-10-06\3. BookingTvp::2022-10-06 113747 TVP 1z2.xls|2022-10-06 113748 TVP 2z2.xls">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_db_nettoMultipliersTemp">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_db_nettoMultipliersTui" comment="C:\MacroTemp::00233db_nettoMultipliers.xlsx">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_displayedPasswordmacie">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_errorHandling">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_freeTimesPolsat" comment="C:\1. Source files::Wolne czasy.xlsx">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_freeTimesTvn" comment="_dropbox_\Minerwa - udostępniać podfoldery\Import Zleceń XP\source\Import zleceń cannon 2022-10-06\8. FreeTimesTvn::2022-10-06 114412 TVN.xlsx">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_freeTimesTvp" comment="_dropbox_\Minerwa - udostępniać podfoldery\Import Zleceń XP\source\2022-10-24::raport_czasywolne.xlsx">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_irrelevantChangesDate" comment="2023-07-14 13:50:30">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_isAdmin" comment="False">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_matchedCopyDict">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_name">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_notNasi">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_orders" comment="_dropbox_\Minerwa\Import zlecen\source\Do obiegu zleceń\TVN::210513820_1_SPOTY_PRINGLES_20.txt">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_ordersPolsat" comment="_dropbox_\Minerwa\Import zlecen\source\1_Import zlecen\2_Orders\05.2021::Polsat1z2.xlsx|Polsat2z2.xlsx">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_ordersTvn" comment="_dropbox_\Minerwa\Import zlecen\source\1_Import zlecen\2_Orders\05.2021::TVN.txt">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_ordersTvp" comment="_dropbox_\Minerwa\Import zlecen\source\1_Import zlecen\2_Orders\05.2021::TVP 1z2.xls|TVP 2z2.xls">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_passwordmacie">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_pred" comment="_dropbox_\Minerwa\Import zlecen\source\Baza kampanii::predykcje - small.xlsx">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_prorok" comment="_dropbox_\Minerwa\Import zlecen\source\Prorok predykcje::_output_est_cennik_20210616_131025.xlsx">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_prorokHist" comment="_dropbox_\Minerwa\kompatybilizacja Senderowski\source::prorokHist 09.2021 All.xlsx">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_prorokHistAll" comment="_dropbox_\Minerwa\kompatybilizacja Senderowski\source::prorokHist 09.2021 All.xlsx">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_prorokPred" comment="_dropbox_\Minerwa\Import zlecen\source::prorokPred 09.2021 All z modyfikatorem.xlsx">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_schedule" comment="_dropbox_\Minerwa - udostępniać podfoldery\Import Zleceń XP\source\Import zleceń cannon 2022-10-06\1. Schedule::2022-10-06 112529 Schedule czysta.txt">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_slownik_brands">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_spotsCount" comment="_dropbox_\McGluszak Sp. z o.o\Rozliczenia - klienci\McGluszak - MEC\Kalkulator CPP 2020\source\cfg::config spots count.xlsx">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_userName" comment="piotr.senderowski">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_userNamemacie">"variablePreservedInComment"</definedName>
-    <definedName name="preserve_workbookName" comment="categorization HV 2020-06-03 1359.xlsm">"variablePreservedInComment"</definedName>
-    <definedName name="range_tablePolsat" localSheetId="0">order!$A$11:$M$1048576</definedName>
+    <definedName name="range_tablePolsat">order!$A$11:$M$1048576</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -468,14 +395,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -484,29 +405,35 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -527,61 +454,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="tvpProductIds_template"/>
-      <sheetName val="tvpCopyIds_template"/>
-      <sheetName val="ImportZleceń"/>
-      <sheetName val="schama"/>
-      <sheetName val="recipients_template"/>
-      <sheetName val="changelog"/>
-      <sheetName val="Arkusz2"/>
-      <sheetName val="Arkusz3"/>
-      <sheetName val="dict"/>
-      <sheetName val="pvt_db"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="D1" t="str">
-            <v>Supplier</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="D2" t="str">
-            <v>TVP</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3" t="str">
-            <v>Polsat</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4" t="str">
-            <v>TVN</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -885,7 +757,7 @@
   <dimension ref="A1:M273"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,131 +776,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
       <c r="M1" s="21"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
       <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
       <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="21"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="22"/>
       <c r="J6" s="21"/>
       <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="22"/>
       <c r="J7" s="21"/>
       <c r="M7" s="21"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="22"/>
       <c r="J8" s="21"/>
       <c r="M8" s="21"/>
